--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/MINNESOTA_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/MINNESOTA_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1005"/>
+  <dimension ref="A1:D999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -420,13 +420,13 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>0.0009837678307919331</v>
+        <v>0.0009837678307919333</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C5">
@@ -654,7 +654,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C21">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C29">
@@ -791,7 +791,7 @@
         <v>6</v>
       </c>
       <c r="D31">
-        <v>0.0009837678307919331</v>
+        <v>0.0009837678307919333</v>
       </c>
     </row>
     <row r="32">
@@ -1051,7 +1051,7 @@
         <v>6</v>
       </c>
       <c r="D51">
-        <v>0.0009837678307919331</v>
+        <v>0.0009837678307919333</v>
       </c>
     </row>
     <row r="52">
@@ -1244,7 +1244,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C66">
@@ -1355,7 +1355,7 @@
         <v>6</v>
       </c>
       <c r="D74">
-        <v>0.0009837678307919331</v>
+        <v>0.0009837678307919333</v>
       </c>
     </row>
     <row r="75">
@@ -1464,7 +1464,7 @@
         <v>6</v>
       </c>
       <c r="D82">
-        <v>0.0009837678307919331</v>
+        <v>0.0009837678307919333</v>
       </c>
     </row>
     <row r="83">
@@ -1542,7 +1542,7 @@
         <v>6</v>
       </c>
       <c r="D88">
-        <v>0.0009837678307919331</v>
+        <v>0.0009837678307919333</v>
       </c>
     </row>
     <row r="89">
@@ -1594,7 +1594,7 @@
         <v>6</v>
       </c>
       <c r="D92">
-        <v>0.0009837678307919331</v>
+        <v>0.0009837678307919333</v>
       </c>
     </row>
     <row r="93">
@@ -1613,7 +1613,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C94">
@@ -1774,7 +1774,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1831,7 +1831,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C110">
@@ -2018,7 +2018,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C124">
@@ -2038,7 +2038,7 @@
         <v>6</v>
       </c>
       <c r="D125">
-        <v>0.0009837678307919331</v>
+        <v>0.0009837678307919333</v>
       </c>
     </row>
     <row r="126">
@@ -2187,7 +2187,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C137">
@@ -2200,7 +2200,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C138">
@@ -2213,7 +2213,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C139">
@@ -2226,7 +2226,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C140">
@@ -2304,12 +2304,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C146">
@@ -2335,7 +2335,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C148">
@@ -2348,7 +2348,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C149">
@@ -2491,7 +2491,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C160">
@@ -2556,7 +2556,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C165">
@@ -2608,7 +2608,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C169">
@@ -2712,7 +2712,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C177">
@@ -2777,7 +2777,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C182">
@@ -2803,7 +2803,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C184">
@@ -2836,7 +2836,7 @@
         <v>6</v>
       </c>
       <c r="D186">
-        <v>0.0009837678307919331</v>
+        <v>0.0009837678307919333</v>
       </c>
     </row>
     <row r="187">
@@ -2907,7 +2907,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C192">
@@ -2920,7 +2920,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C193">
@@ -3037,7 +3037,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C202">
@@ -3089,7 +3089,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C206">
@@ -3198,7 +3198,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C214">
@@ -3211,7 +3211,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C215">
@@ -3224,7 +3224,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C216">
@@ -3302,7 +3302,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C222">
@@ -3354,7 +3354,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C226">
@@ -3432,7 +3432,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C232">
@@ -3497,7 +3497,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C237">
@@ -3523,7 +3523,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C239">
@@ -3536,7 +3536,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C240">
@@ -3549,14 +3549,14 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C241">
         <v>6</v>
       </c>
       <c r="D241">
-        <v>0.0009837678307919331</v>
+        <v>0.0009837678307919333</v>
       </c>
     </row>
     <row r="242">
@@ -3614,7 +3614,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C246">
@@ -3697,7 +3697,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C252">
@@ -3710,20 +3710,20 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C253">
         <v>6</v>
       </c>
       <c r="D253">
-        <v>0.0009837678307919331</v>
+        <v>0.0009837678307919333</v>
       </c>
     </row>
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C254">
@@ -3762,7 +3762,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C257">
@@ -3788,7 +3788,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C259">
@@ -3801,7 +3801,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C260">
@@ -3821,7 +3821,7 @@
         <v>6</v>
       </c>
       <c r="D261">
-        <v>0.0009837678307919331</v>
+        <v>0.0009837678307919333</v>
       </c>
     </row>
     <row r="262">
@@ -3840,7 +3840,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C263">
@@ -3853,7 +3853,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C264">
@@ -3866,7 +3866,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C265">
@@ -3931,7 +3931,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C270">
@@ -3944,7 +3944,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C271">
@@ -3996,7 +3996,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C275">
@@ -4009,7 +4009,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C276">
@@ -4068,7 +4068,7 @@
         <v>6</v>
       </c>
       <c r="D280">
-        <v>0.0009837678307919331</v>
+        <v>0.0009837678307919333</v>
       </c>
     </row>
     <row r="281">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C282">
@@ -4100,7 +4100,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C283">
@@ -4126,7 +4126,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C285">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C286">
@@ -4165,7 +4165,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C288">
@@ -4328,13 +4328,13 @@
         <v>6</v>
       </c>
       <c r="D300">
-        <v>0.0009837678307919331</v>
+        <v>0.0009837678307919333</v>
       </c>
     </row>
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C301">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C303">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C305">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C309">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C310">
@@ -4586,7 +4586,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C320">
@@ -4664,7 +4664,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C326">
@@ -4716,7 +4716,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C330">
@@ -4807,7 +4807,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C337">
@@ -4833,7 +4833,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C339">
@@ -4846,7 +4846,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C340">
@@ -4859,7 +4859,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C341">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C346">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C347">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C348">
@@ -5015,7 +5015,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C353">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C354">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C355">
@@ -5137,7 +5137,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C362">
@@ -5267,7 +5267,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C372">
@@ -5345,7 +5345,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C378">
@@ -5384,7 +5384,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C381">
@@ -5423,7 +5423,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C384">
@@ -5482,7 +5482,7 @@
         <v>6</v>
       </c>
       <c r="D388">
-        <v>0.0009837678307919331</v>
+        <v>0.0009837678307919333</v>
       </c>
     </row>
     <row r="389">
@@ -5495,7 +5495,7 @@
         <v>6</v>
       </c>
       <c r="D389">
-        <v>0.0009837678307919331</v>
+        <v>0.0009837678307919333</v>
       </c>
     </row>
     <row r="390">
@@ -5527,7 +5527,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C392">
@@ -5553,7 +5553,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C394">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C395">
@@ -5579,7 +5579,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C396">
@@ -5605,7 +5605,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C398">
@@ -5618,7 +5618,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C399">
@@ -5670,7 +5670,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C403">
@@ -5696,7 +5696,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C405">
@@ -5761,7 +5761,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C410">
@@ -5826,7 +5826,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C415">
@@ -6039,7 +6039,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C431">
@@ -6065,7 +6065,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C433">
@@ -6876,7 +6876,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C495">
@@ -6915,7 +6915,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C498">
@@ -6935,7 +6935,7 @@
         <v>6</v>
       </c>
       <c r="D499">
-        <v>0.0009837678307919331</v>
+        <v>0.0009837678307919333</v>
       </c>
     </row>
     <row r="500">
@@ -6980,7 +6980,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C503">
@@ -6993,7 +6993,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C504">
@@ -7097,14 +7097,14 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C512">
         <v>6</v>
       </c>
       <c r="D512">
-        <v>0.0009837678307919331</v>
+        <v>0.0009837678307919333</v>
       </c>
     </row>
     <row r="513">
@@ -7167,7 +7167,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C517">
@@ -7226,7 +7226,7 @@
         <v>6</v>
       </c>
       <c r="D521">
-        <v>0.0009837678307919331</v>
+        <v>0.0009837678307919333</v>
       </c>
     </row>
     <row r="522">
@@ -7471,7 +7471,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C540">
@@ -7502,7 +7502,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C542">
@@ -7541,7 +7541,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C545">
@@ -7567,7 +7567,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C547">
@@ -7580,7 +7580,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C548">
@@ -7593,7 +7593,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C549">
@@ -7606,7 +7606,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C550">
@@ -7619,7 +7619,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C551">
@@ -7671,7 +7671,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C555">
@@ -7697,7 +7697,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C557">
@@ -7710,7 +7710,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C558">
@@ -7723,7 +7723,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C559">
@@ -7736,7 +7736,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C560">
@@ -7749,7 +7749,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C561">
@@ -7762,14 +7762,14 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C562">
         <v>6</v>
       </c>
       <c r="D562">
-        <v>0.0009837678307919331</v>
+        <v>0.0009837678307919333</v>
       </c>
     </row>
     <row r="563">
@@ -7879,7 +7879,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C571">
@@ -7990,7 +7990,7 @@
         <v>6</v>
       </c>
       <c r="D579">
-        <v>0.0009837678307919331</v>
+        <v>0.0009837678307919333</v>
       </c>
     </row>
     <row r="580">
@@ -8191,7 +8191,7 @@
     <row r="595">
       <c r="B595" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C595">
@@ -8880,7 +8880,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C648">
@@ -8945,7 +8945,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C653">
@@ -8958,7 +8958,7 @@
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C654">
@@ -8971,7 +8971,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C655">
@@ -8984,7 +8984,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C656">
@@ -8997,7 +8997,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C657">
@@ -9171,7 +9171,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C670">
@@ -9223,7 +9223,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C674">
@@ -9301,7 +9301,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C680">
@@ -9366,7 +9366,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C685">
@@ -9509,7 +9509,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C696">
@@ -9522,7 +9522,7 @@
     <row r="697">
       <c r="B697" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C697">
@@ -9561,7 +9561,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C700">
@@ -9587,7 +9587,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C702">
@@ -9626,7 +9626,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C705">
@@ -9685,13 +9685,13 @@
         <v>6</v>
       </c>
       <c r="D709">
-        <v>0.0009837678307919331</v>
+        <v>0.0009837678307919333</v>
       </c>
     </row>
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C710">
@@ -9789,13 +9789,13 @@
         <v>6</v>
       </c>
       <c r="D717">
-        <v>0.0009837678307919331</v>
+        <v>0.0009837678307919333</v>
       </c>
     </row>
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C718">
@@ -9808,7 +9808,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C719">
@@ -9834,7 +9834,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C721">
@@ -9951,7 +9951,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C730">
@@ -9964,7 +9964,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C731">
@@ -10029,7 +10029,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C736">
@@ -10062,7 +10062,7 @@
         <v>6</v>
       </c>
       <c r="D738">
-        <v>0.0009837678307919331</v>
+        <v>0.0009837678307919333</v>
       </c>
     </row>
     <row r="739">
@@ -10294,7 +10294,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C756">
@@ -10307,7 +10307,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C757">
@@ -10346,7 +10346,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C760">
@@ -10385,7 +10385,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C763">
@@ -10577,7 +10577,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C777">
@@ -10649,13 +10649,13 @@
         <v>6</v>
       </c>
       <c r="D782">
-        <v>0.0009837678307919331</v>
+        <v>0.0009837678307919333</v>
       </c>
     </row>
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C783">
@@ -10746,7 +10746,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C790">
@@ -10824,7 +10824,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C796">
@@ -10837,7 +10837,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C797">
@@ -10850,7 +10850,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C798">
@@ -11120,7 +11120,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C818">
@@ -11184,7 +11184,7 @@
         <v>6</v>
       </c>
       <c r="D822">
-        <v>0.0009837678307919331</v>
+        <v>0.0009837678307919333</v>
       </c>
     </row>
     <row r="823">
@@ -11571,7 +11571,7 @@
         <v>6</v>
       </c>
       <c r="D851">
-        <v>0.0009837678307919331</v>
+        <v>0.0009837678307919333</v>
       </c>
     </row>
     <row r="852">
@@ -11642,7 +11642,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C857">
@@ -11655,7 +11655,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C858">
@@ -11803,7 +11803,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C869">
@@ -11829,7 +11829,7 @@
     <row r="871">
       <c r="B871" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C871">
@@ -11933,7 +11933,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C879">
@@ -12037,7 +12037,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C887">
@@ -12167,7 +12167,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C897">
@@ -12180,7 +12180,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C898">
@@ -12297,7 +12297,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C907">
@@ -12336,7 +12336,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C910">
@@ -12362,7 +12362,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C912">
@@ -12414,7 +12414,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C916">
@@ -12427,7 +12427,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C917">
@@ -12531,7 +12531,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C925">
@@ -12544,7 +12544,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C926">
@@ -12583,7 +12583,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C929">
@@ -12661,7 +12661,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C935">
@@ -12700,7 +12700,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C938">
@@ -12908,7 +12908,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C954">
@@ -13113,7 +13113,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C969">
@@ -13139,7 +13139,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C971">
@@ -13250,7 +13250,7 @@
         <v>6</v>
       </c>
       <c r="D979">
-        <v>0.0009837678307919331</v>
+        <v>0.0009837678307919333</v>
       </c>
     </row>
     <row r="980">
@@ -13269,7 +13269,7 @@
     <row r="981">
       <c r="B981" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C981">
@@ -13282,7 +13282,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C982">
@@ -13399,7 +13399,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C991">
@@ -13425,7 +13425,7 @@
     <row r="993">
       <c r="B993" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C993">
@@ -13511,41 +13511,6 @@
       </c>
       <c r="D999">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1001">
-      <c r="A1001" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1002">
-      <c r="A1002" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1003">
-      <c r="A1003" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1004">
-      <c r="A1004" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1005">
-      <c r="A1005" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>
